--- a/DS_10Ly4 - Copy.xlsx
+++ b/DS_10Ly4 - Copy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRAN THANH CONG\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRAN THANH CONG\Dropbox\PythonAI\ly_4_2\Ly_4_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB4D298-AE4F-4967-BCCC-4822AB8B7C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C12E6D6-827A-4D78-B5D0-82B09BFA9C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3139B793-E1FF-4D60-89A4-8357C853B3FD}"/>
   </bookViews>
@@ -303,9 +303,6 @@
     <t>hehehe</t>
   </si>
   <si>
-    <t>hohoho</t>
-  </si>
-  <si>
     <t>sfsaf</t>
   </si>
   <si>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>sgsr</t>
+  </si>
+  <si>
+    <t>hohohe</t>
   </si>
 </sst>
 </file>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8769553C-9D4C-4175-BAAF-2D7B4B8326FF}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -953,7 +953,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -1271,7 +1271,7 @@
       <c r="H10" s="21"/>
       <c r="J10" s="7"/>
       <c r="K10" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -1309,7 +1309,7 @@
       <c r="H11" s="22"/>
       <c r="J11" s="7"/>
       <c r="K11" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -1427,7 +1427,7 @@
       <c r="H14" s="21"/>
       <c r="J14" s="7"/>
       <c r="K14" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -1459,7 +1459,7 @@
       <c r="H15" s="22"/>
       <c r="J15" s="14"/>
       <c r="K15" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
@@ -1497,7 +1497,7 @@
       <c r="H16" s="21"/>
       <c r="J16" s="7"/>
       <c r="K16" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>

--- a/DS_10Ly4 - Copy.xlsx
+++ b/DS_10Ly4 - Copy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRAN THANH CONG\Dropbox\PythonAI\ly_4_2\Ly_4_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRAN THANH CONG\Dropbox\PythonAI\Ly_4_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C12E6D6-827A-4D78-B5D0-82B09BFA9C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3E3D61-2E2D-46CA-9B7D-61DECDE23635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3139B793-E1FF-4D60-89A4-8357C853B3FD}"/>
   </bookViews>
@@ -345,7 +345,7 @@
     <t>sgsr</t>
   </si>
   <si>
-    <t>hohohe</t>
+    <t>hohohe1</t>
   </si>
 </sst>
 </file>
@@ -865,7 +865,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/DS_10Ly4 - Copy.xlsx
+++ b/DS_10Ly4 - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRAN THANH CONG\Dropbox\PythonAI\Ly_4_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3E3D61-2E2D-46CA-9B7D-61DECDE23635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE85E3D-2AA8-4892-BDFD-FAFE83CA06B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3139B793-E1FF-4D60-89A4-8357C853B3FD}"/>
   </bookViews>
@@ -306,9 +306,6 @@
     <t>sfsaf</t>
   </si>
   <si>
-    <t>dgsdg</t>
-  </si>
-  <si>
     <t>gdgs</t>
   </si>
   <si>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>hohohe1</t>
+  </si>
+  <si>
+    <t>hhhe</t>
   </si>
 </sst>
 </file>
@@ -865,7 +865,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -953,7 +953,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="8" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -1271,7 +1271,7 @@
       <c r="H10" s="21"/>
       <c r="J10" s="7"/>
       <c r="K10" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -1309,7 +1309,7 @@
       <c r="H11" s="22"/>
       <c r="J11" s="7"/>
       <c r="K11" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -1427,7 +1427,7 @@
       <c r="H14" s="21"/>
       <c r="J14" s="7"/>
       <c r="K14" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -1459,7 +1459,7 @@
       <c r="H15" s="22"/>
       <c r="J15" s="14"/>
       <c r="K15" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
@@ -1497,7 +1497,7 @@
       <c r="H16" s="21"/>
       <c r="J16" s="7"/>
       <c r="K16" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>

--- a/DS_10Ly4 - Copy.xlsx
+++ b/DS_10Ly4 - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRAN THANH CONG\Dropbox\PythonAI\Ly_4_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A147C0D7-C34E-4771-80D5-999A24FB1DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38DCF71-C0DB-4B6B-86E0-2D4FAD6553FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3139B793-E1FF-4D60-89A4-8357C853B3FD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="107">
   <si>
     <t>STT</t>
   </si>
@@ -346,9 +346,6 @@
   </si>
   <si>
     <t>hhhe</t>
-  </si>
-  <si>
-    <t>Nguyễn Lục Hoàng Minh</t>
   </si>
 </sst>
 </file>
@@ -867,7 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8769553C-9D4C-4175-BAAF-2D7B4B8326FF}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
@@ -2215,12 +2212,7 @@
       <c r="T34" s="10"/>
     </row>
     <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
-        <v>107</v>
-      </c>
-      <c r="K35" s="8">
-        <v>123456</v>
-      </c>
+      <c r="K35" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
